--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_2_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_2_17.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>718990.9401305853</v>
+        <v>743870.5505813217</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>335690.3293889765</v>
+        <v>335690.3293889766</v>
       </c>
     </row>
     <row r="8">
@@ -656,76 +656,76 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>84.41978777916125</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R2" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S2" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C2" t="n">
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>212.285385643442</v>
-      </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,13 +735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="D3" t="n">
-        <v>84.4730545048111</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -786,25 +786,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C5" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>202.2946864288972</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -972,19 +972,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>85.31372784089211</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1026,22 +1026,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>263.2420339516666</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="C8" t="n">
-        <v>231.8635835046279</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,10 +1142,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="G8" t="n">
-        <v>263.2420339516666</v>
+        <v>231.8635835046281</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>263.2420339516666</v>
+        <v>263.2420339516669</v>
       </c>
     </row>
     <row r="9">
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>125.6384340685022</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1263,13 +1263,13 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>185.7305222296105</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>159.8350691069749</v>
+        <v>5.632598604764548</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>154.2024705022107</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,28 +1415,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>72.46740104192081</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>218.3734398702018</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1449,7 +1449,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>172.7084989883154</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -1461,7 +1461,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.5310119231963</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H12" t="n">
         <v>104.3883541553076</v>
@@ -1534,22 +1534,22 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>18.3768222575565</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1582,13 +1582,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>65.51651982872606</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1607,22 +1607,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
         <v>151.9313162448613</v>
@@ -1655,7 +1655,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>50.9055910501257</v>
       </c>
       <c r="T14" t="n">
         <v>216.4483203576578</v>
@@ -1664,13 +1664,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>322.8156897822614</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1683,7 +1683,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>166.5331836498671</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -1701,7 +1701,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H15" t="n">
-        <v>104.3883541553069</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
         <v>61.42221998250818</v>
@@ -1765,28 +1765,28 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>18.3768222575565</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1819,10 +1819,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>248.0596779397532</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>163.3224055697209</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>217.5699682789832</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,28 +1889,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2002,22 +2002,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,16 +2050,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>49.98991138064243</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2081,13 +2081,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>7.058423000547998</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>110.7002136147245</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,19 +2126,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2172,7 +2172,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.5310119231968</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H21" t="n">
         <v>104.3883541553076</v>
@@ -2214,7 +2214,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8879277888683</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2239,10 +2239,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>120.2570633735996</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>141.55483850657</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>258.4400085979404</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2333,7 +2333,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2363,16 +2363,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>44.94101498269133</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2381,7 +2381,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2412,7 +2412,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H24" t="n">
-        <v>104.3883541553078</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
         <v>61.42221998250818</v>
@@ -2482,22 +2482,22 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>18.37682225755661</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2527,13 +2527,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2555,19 +2555,19 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>65.86949189967142</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>288.2077862882932</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
@@ -2603,16 +2603,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2643,7 +2643,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933836</v>
       </c>
       <c r="G27" t="n">
         <v>136.5310119231965</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>90.04875807993751</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>36.72126511067018</v>
       </c>
       <c r="S28" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,13 +2789,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>7.670527336298778</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2807,7 +2807,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2843,13 +2843,13 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>127.7871454939606</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2998,19 +2998,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>230.2634979541059</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>129.0246247964034</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>163.5964993518209</v>
       </c>
       <c r="G32" t="n">
-        <v>343.0471961917882</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,28 +3074,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3108,7 +3108,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883154</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -3238,22 +3238,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>155.4526127311942</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>155.2114886365804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>342.2539560722655</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3281,7 +3281,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,16 +3320,16 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>12.77609278441097</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3466,31 +3466,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>20.26682930112241</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>203.1609600883621</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3506,13 +3506,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>86.34633101130363</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3521,7 +3521,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,28 +3548,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>36.95713297996205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3597,10 +3597,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H39" t="n">
-        <v>104.3883541553078</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3670,13 +3670,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>68.49439899867237</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,13 +3709,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>230.263497954106</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3737,22 +3737,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.6777365899916</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3785,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3797,10 +3797,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>269.5134569480837</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3828,7 +3828,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933841</v>
       </c>
       <c r="G42" t="n">
         <v>136.5310119231965</v>
@@ -3837,7 +3837,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,28 +3898,28 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>59.66385641544514</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>24.8342303463928</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3961,7 +3961,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>235.6774517284623</v>
       </c>
       <c r="C44" t="n">
-        <v>313.3565959923314</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4022,25 +4022,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4053,7 +4053,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>166.5331836498675</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4132,16 +4132,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>8.389005322401561</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4156,7 +4156,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>26.32882004050039</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,7 +4304,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C2" t="n">
         <v>19.28114311021272</v>
@@ -4349,31 +4349,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="V2" t="n">
-        <v>964.0571555106362</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="W2" t="n">
-        <v>964.0571555106362</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="X2" t="n">
-        <v>749.627473042513</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="Y2" t="n">
-        <v>506.1786963984129</v>
+        <v>104.5536560184564</v>
       </c>
     </row>
     <row r="3">
@@ -4383,10 +4383,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>279.0604900729671</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="C3" t="n">
-        <v>104.6074607918401</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
         <v>19.28114311021272</v>
@@ -4416,13 +4416,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4434,25 +4434,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>862.8876260635219</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U3" t="n">
-        <v>862.8876260635219</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V3" t="n">
-        <v>862.8876260635219</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W3" t="n">
-        <v>862.8876260635219</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="X3" t="n">
-        <v>655.0361258579891</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="Y3" t="n">
-        <v>447.2758270930352</v>
+        <v>23.90796037760316</v>
       </c>
     </row>
     <row r="4">
@@ -4541,13 +4541,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C5" t="n">
-        <v>467.067986854209</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D5" t="n">
-        <v>467.067986854209</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E5" t="n">
         <v>262.7299197543128</v>
@@ -4586,31 +4586,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X5" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y5" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="6">
@@ -4620,16 +4620,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>588.0815197256143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>413.6284904444873</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>264.694080783236</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>105.4566257777805</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
         <v>19.28114311021272</v>
@@ -4647,22 +4647,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4674,22 +4674,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W6" t="n">
-        <v>964.0571555106362</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X6" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y6" t="n">
-        <v>756.2968567456824</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="7">
@@ -4747,7 +4747,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S7" t="n">
         <v>19.28114311021272</v>
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>521.1660470154206</v>
+        <v>521.1660470154213</v>
       </c>
       <c r="C8" t="n">
-        <v>286.9604071117561</v>
+        <v>521.1660470154213</v>
       </c>
       <c r="D8" t="n">
-        <v>286.9604071117561</v>
+        <v>521.1660470154213</v>
       </c>
       <c r="E8" t="n">
-        <v>286.9604071117561</v>
+        <v>521.1660470154213</v>
       </c>
       <c r="F8" t="n">
-        <v>286.9604071117561</v>
+        <v>255.2650026197982</v>
       </c>
       <c r="G8" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="H8" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="I8" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="J8" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="K8" t="n">
-        <v>135.7250809573682</v>
+        <v>135.7250809573684</v>
       </c>
       <c r="L8" t="n">
-        <v>330.2546714142361</v>
+        <v>330.2546714142364</v>
       </c>
       <c r="M8" t="n">
-        <v>563.3128681098024</v>
+        <v>563.3128681098028</v>
       </c>
       <c r="N8" t="n">
-        <v>785.5101925369329</v>
+        <v>785.5101925369336</v>
       </c>
       <c r="O8" t="n">
-        <v>950.137187388514</v>
+        <v>950.1371873885148</v>
       </c>
       <c r="P8" t="n">
-        <v>1052.968135806667</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="Q8" t="n">
-        <v>1052.968135806666</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="R8" t="n">
-        <v>1052.968135806666</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="S8" t="n">
-        <v>1052.968135806666</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="T8" t="n">
-        <v>1052.968135806666</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="U8" t="n">
-        <v>1052.968135806666</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="V8" t="n">
-        <v>1052.968135806666</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="W8" t="n">
-        <v>1052.968135806666</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="X8" t="n">
-        <v>1052.968135806666</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="Y8" t="n">
-        <v>787.0670914110435</v>
+        <v>787.0670914110444</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>195.5123919972604</v>
+        <v>147.9668718762366</v>
       </c>
       <c r="C9" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="D9" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="E9" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="F9" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="G9" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="H9" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="I9" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="J9" t="n">
-        <v>24.9501803568321</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="K9" t="n">
-        <v>24.9501803568321</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="L9" t="n">
-        <v>265.5537082516946</v>
+        <v>79.33446981177622</v>
       </c>
       <c r="M9" t="n">
-        <v>526.1633218638444</v>
+        <v>339.9440834239264</v>
       </c>
       <c r="N9" t="n">
-        <v>786.7729354759944</v>
+        <v>600.5536970360766</v>
       </c>
       <c r="O9" t="n">
-        <v>1047.185999568486</v>
+        <v>860.9667611285688</v>
       </c>
       <c r="P9" t="n">
-        <v>1052.968135806666</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="Q9" t="n">
-        <v>1052.968135806666</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="R9" t="n">
-        <v>1052.968135806666</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="S9" t="n">
-        <v>1052.968135806666</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="T9" t="n">
-        <v>865.3615476959487</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="U9" t="n">
-        <v>865.3615476959487</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="V9" t="n">
-        <v>865.3615476959487</v>
+        <v>817.8160275749249</v>
       </c>
       <c r="W9" t="n">
-        <v>611.1241909677472</v>
+        <v>563.5786708467233</v>
       </c>
       <c r="X9" t="n">
-        <v>403.2726907622143</v>
+        <v>355.7271706411905</v>
       </c>
       <c r="Y9" t="n">
-        <v>195.5123919972604</v>
+        <v>147.9668718762366</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>182.5089274706535</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="C10" t="n">
-        <v>182.5089274706535</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="D10" t="n">
-        <v>182.5089274706535</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="E10" t="n">
-        <v>182.5089274706535</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="F10" t="n">
-        <v>182.5089274706535</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="G10" t="n">
-        <v>182.5089274706535</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="H10" t="n">
-        <v>21.05936271613333</v>
+        <v>176.8194339304876</v>
       </c>
       <c r="I10" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="J10" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="K10" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="L10" t="n">
-        <v>54.48163939360296</v>
+        <v>54.48163939360305</v>
       </c>
       <c r="M10" t="n">
-        <v>100.1098670955239</v>
+        <v>100.1098670955241</v>
       </c>
       <c r="N10" t="n">
-        <v>150.0877739486497</v>
+        <v>150.08777394865</v>
       </c>
       <c r="O10" t="n">
-        <v>180.2341645716483</v>
+        <v>180.2341645716486</v>
       </c>
       <c r="P10" t="n">
-        <v>182.5089274706535</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="Q10" t="n">
-        <v>182.5089274706535</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="R10" t="n">
-        <v>182.5089274706535</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="S10" t="n">
-        <v>182.5089274706535</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="T10" t="n">
-        <v>182.5089274706535</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="U10" t="n">
-        <v>182.5089274706535</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="V10" t="n">
-        <v>182.5089274706535</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="W10" t="n">
-        <v>182.5089274706535</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="X10" t="n">
-        <v>182.5089274706535</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="Y10" t="n">
-        <v>182.5089274706535</v>
+        <v>182.5089274706538</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2476.569858826099</v>
+        <v>833.8914035503838</v>
       </c>
       <c r="C11" t="n">
-        <v>2107.607341885688</v>
+        <v>464.928886609972</v>
       </c>
       <c r="D11" t="n">
-        <v>1749.341643278937</v>
+        <v>464.928886609972</v>
       </c>
       <c r="E11" t="n">
-        <v>1363.553390680693</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F11" t="n">
-        <v>952.5674858910851</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G11" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H11" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I11" t="n">
         <v>53.94298182036445</v>
@@ -5042,10 +5042,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
@@ -5063,28 +5063,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T11" t="n">
-        <v>2697.149091018222</v>
+        <v>2568.921006556876</v>
       </c>
       <c r="U11" t="n">
-        <v>2697.149091018222</v>
+        <v>2315.159221194968</v>
       </c>
       <c r="V11" t="n">
-        <v>2476.569858826099</v>
+        <v>1984.096333851397</v>
       </c>
       <c r="W11" t="n">
-        <v>2476.569858826099</v>
+        <v>1984.096333851397</v>
       </c>
       <c r="X11" t="n">
-        <v>2476.569858826099</v>
+        <v>1610.630575590317</v>
       </c>
       <c r="Y11" t="n">
-        <v>2476.569858826099</v>
+        <v>1220.491243614505</v>
       </c>
     </row>
     <row r="12">
@@ -5097,16 +5097,16 @@
         <v>988.497975217083</v>
       </c>
       <c r="C12" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G12" t="n">
         <v>221.4284102424006</v>
@@ -5118,25 +5118,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L12" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M12" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N12" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O12" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P12" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018222</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C13" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D13" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E13" t="n">
-        <v>709.5665374816297</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F13" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G13" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H13" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I13" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
         <v>53.94298182036445</v>
@@ -5218,31 +5218,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U13" t="n">
-        <v>728.1289842064342</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="V13" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W13" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X13" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y13" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>983.6384645338385</v>
+        <v>2118.304160219349</v>
       </c>
       <c r="C14" t="n">
-        <v>983.6384645338385</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D14" t="n">
-        <v>625.3727659270879</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E14" t="n">
-        <v>625.3727659270879</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F14" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G14" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H14" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533135</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K14" t="n">
-        <v>463.961649073312</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224068</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M14" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
@@ -5300,28 +5300,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2465.942913862885</v>
+        <v>2590.700612609195</v>
       </c>
       <c r="T14" t="n">
-        <v>2247.308246834948</v>
+        <v>2372.065945581257</v>
       </c>
       <c r="U14" t="n">
-        <v>1993.54646147304</v>
+        <v>2118.304160219349</v>
       </c>
       <c r="V14" t="n">
-        <v>1662.483574129469</v>
+        <v>2118.304160219349</v>
       </c>
       <c r="W14" t="n">
-        <v>1309.714918859355</v>
+        <v>2118.304160219349</v>
       </c>
       <c r="X14" t="n">
-        <v>983.6384645338385</v>
+        <v>2118.304160219349</v>
       </c>
       <c r="Y14" t="n">
-        <v>983.6384645338385</v>
+        <v>2118.304160219349</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5331,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H15" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
         <v>129.2001442204943</v>
@@ -5367,13 +5367,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N15" t="n">
-        <v>1748.695370517452</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O15" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018222</v>
@@ -5394,10 +5394,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y15" t="n">
         <v>1156.713312237151</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>728.1289842064342</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C16" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D16" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E16" t="n">
-        <v>709.5665374816297</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F16" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G16" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H16" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I16" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K16" t="n">
         <v>110.2451748866326</v>
@@ -5467,19 +5467,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U16" t="n">
-        <v>728.1289842064342</v>
+        <v>477.5636529541582</v>
       </c>
       <c r="V16" t="n">
-        <v>728.1289842064342</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="W16" t="n">
-        <v>728.1289842064342</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="X16" t="n">
-        <v>728.1289842064342</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="Y16" t="n">
-        <v>728.1289842064342</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="17">
@@ -5489,43 +5489,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>381.1377017843616</v>
+        <v>2310.5492509541</v>
       </c>
       <c r="C17" t="n">
-        <v>381.1377017843616</v>
+        <v>1941.586734013689</v>
       </c>
       <c r="D17" t="n">
-        <v>381.1377017843616</v>
+        <v>1583.321035406938</v>
       </c>
       <c r="E17" t="n">
-        <v>381.1377017843616</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F17" t="n">
-        <v>381.1377017843616</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G17" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K17" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
@@ -5537,28 +5537,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S17" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T17" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U17" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V17" t="n">
-        <v>1662.483574129469</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W17" t="n">
-        <v>1309.714918859355</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X17" t="n">
-        <v>936.2491605982752</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y17" t="n">
-        <v>546.1098286224635</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="18">
@@ -5568,55 +5568,55 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M18" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O18" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P18" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S18" t="n">
         <v>2488.762748073963</v>
@@ -5631,10 +5631,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y18" t="n">
         <v>1156.713312237151</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036444</v>
+        <v>677.6341242259873</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036444</v>
+        <v>508.6979412980804</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036444</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036444</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036444</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036444</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
@@ -5698,25 +5698,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U19" t="n">
-        <v>308.6274700262513</v>
+        <v>677.6341242259873</v>
       </c>
       <c r="V19" t="n">
-        <v>53.94298182036444</v>
+        <v>677.6341242259873</v>
       </c>
       <c r="W19" t="n">
-        <v>53.94298182036444</v>
+        <v>677.6341242259873</v>
       </c>
       <c r="X19" t="n">
-        <v>53.94298182036444</v>
+        <v>677.6341242259873</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.94298182036444</v>
+        <v>677.6341242259873</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>920.5121489496512</v>
+        <v>214.5386780278486</v>
       </c>
       <c r="C20" t="n">
-        <v>551.5496320092395</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="D20" t="n">
-        <v>551.5496320092395</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="E20" t="n">
-        <v>165.7613794109953</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="F20" t="n">
-        <v>165.7613794109953</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G20" t="n">
-        <v>165.7613794109953</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H20" t="n">
-        <v>165.7613794109953</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P20" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T20" t="n">
-        <v>2423.485734520779</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U20" t="n">
-        <v>2423.485734520779</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V20" t="n">
-        <v>2423.485734520779</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W20" t="n">
-        <v>2070.717079250664</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X20" t="n">
-        <v>1697.251320989585</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="Y20" t="n">
-        <v>1307.111989013773</v>
+        <v>601.1385180919704</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G21" t="n">
         <v>221.4284102424006</v>
@@ -5826,40 +5826,40 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L21" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M21" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O21" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P21" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U21" t="n">
         <v>2061.714576167582</v>
@@ -5874,7 +5874,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y21" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="22">
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>473.4444960005475</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="C22" t="n">
-        <v>351.9727148150933</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="D22" t="n">
-        <v>201.8560754027576</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F22" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K22" t="n">
         <v>110.2451748866326</v>
@@ -5917,43 +5917,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N22" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064343</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T22" t="n">
-        <v>728.1289842064343</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U22" t="n">
-        <v>728.1289842064343</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V22" t="n">
-        <v>473.4444960005475</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W22" t="n">
-        <v>473.4444960005475</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X22" t="n">
-        <v>473.4444960005475</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="Y22" t="n">
-        <v>473.4444960005475</v>
+        <v>513.8405610245969</v>
       </c>
     </row>
     <row r="23">
@@ -5963,37 +5963,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.9054987607762</v>
+        <v>1108.365917331524</v>
       </c>
       <c r="C23" t="n">
-        <v>53.94298182036446</v>
+        <v>739.4034003911122</v>
       </c>
       <c r="D23" t="n">
-        <v>53.94298182036446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="E23" t="n">
-        <v>53.94298182036446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F23" t="n">
-        <v>53.94298182036446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6011,28 +6011,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2651.754126389241</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2475.576638703411</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2256.941971675474</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U23" t="n">
-        <v>2256.941971675474</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V23" t="n">
-        <v>1925.879084331904</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W23" t="n">
-        <v>1573.11042906179</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X23" t="n">
-        <v>1199.64467080071</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="Y23" t="n">
-        <v>809.505338824898</v>
+        <v>1369.416431066817</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H24" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
         <v>129.2001442204943</v>
@@ -6081,10 +6081,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O24" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P24" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018223</v>
@@ -6111,7 +6111,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y24" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="25">
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C25" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D25" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E25" t="n">
-        <v>709.5665374816297</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F25" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G25" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H25" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I25" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
@@ -6154,43 +6154,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N25" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064343</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U25" t="n">
-        <v>728.1289842064343</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V25" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W25" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X25" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y25" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1970.914677487028</v>
+        <v>601.1385180919704</v>
       </c>
       <c r="C26" t="n">
-        <v>1601.952160546617</v>
+        <v>601.1385180919704</v>
       </c>
       <c r="D26" t="n">
-        <v>1243.686461939866</v>
+        <v>534.603677789272</v>
       </c>
       <c r="E26" t="n">
-        <v>1243.686461939866</v>
+        <v>534.603677789272</v>
       </c>
       <c r="F26" t="n">
-        <v>952.5674858910851</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G26" t="n">
         <v>534.603677789272</v>
@@ -6224,10 +6224,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
         <v>881.2824271224075</v>
@@ -6251,25 +6251,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U26" t="n">
-        <v>2697.149091018222</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V26" t="n">
-        <v>2697.149091018222</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W26" t="n">
-        <v>2344.380435748108</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X26" t="n">
-        <v>1970.914677487028</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="Y26" t="n">
-        <v>1970.914677487028</v>
+        <v>601.1385180919704</v>
       </c>
     </row>
     <row r="27">
@@ -6279,16 +6279,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F27" t="n">
         <v>359.3385232961344</v>
@@ -6318,28 +6318,28 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O27" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P27" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
         <v>1572.325111207638</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>144.9013233152508</v>
+        <v>509.3883323957195</v>
       </c>
       <c r="C28" t="n">
-        <v>144.9013233152508</v>
+        <v>509.3883323957195</v>
       </c>
       <c r="D28" t="n">
-        <v>144.9013233152508</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="E28" t="n">
-        <v>144.9013233152508</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036445</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I28" t="n">
         <v>53.94298182036445</v>
@@ -6406,28 +6406,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>579.9823256406182</v>
+        <v>691.0367972259593</v>
       </c>
       <c r="S28" t="n">
-        <v>365.6939024587809</v>
+        <v>691.0367972259593</v>
       </c>
       <c r="T28" t="n">
-        <v>365.6939024587809</v>
+        <v>691.0367972259593</v>
       </c>
       <c r="U28" t="n">
-        <v>365.6939024587809</v>
+        <v>691.0367972259593</v>
       </c>
       <c r="V28" t="n">
-        <v>365.6939024587809</v>
+        <v>691.0367972259593</v>
       </c>
       <c r="W28" t="n">
-        <v>365.6939024587809</v>
+        <v>691.0367972259593</v>
       </c>
       <c r="X28" t="n">
-        <v>365.6939024587809</v>
+        <v>691.0367972259593</v>
       </c>
       <c r="Y28" t="n">
-        <v>144.9013233152508</v>
+        <v>691.0367972259593</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>833.8914035503838</v>
+        <v>799.8716139843721</v>
       </c>
       <c r="C29" t="n">
-        <v>464.928886609972</v>
+        <v>799.8716139843721</v>
       </c>
       <c r="D29" t="n">
-        <v>464.928886609972</v>
+        <v>792.1236065739693</v>
       </c>
       <c r="E29" t="n">
-        <v>464.928886609972</v>
+        <v>792.1236065739693</v>
       </c>
       <c r="F29" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H29" t="n">
         <v>53.94298182036445</v>
@@ -6461,7 +6461,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
         <v>463.9616490733127</v>
@@ -6473,7 +6473,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
@@ -6491,22 +6491,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T29" t="n">
-        <v>2336.864989121511</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U29" t="n">
-        <v>2336.864989121511</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V29" t="n">
-        <v>2336.864989121511</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W29" t="n">
-        <v>1984.096333851397</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X29" t="n">
-        <v>1610.630575590317</v>
+        <v>1190.010945960184</v>
       </c>
       <c r="Y29" t="n">
-        <v>1220.491243614505</v>
+        <v>799.8716139843721</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6540,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L30" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M30" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O30" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P30" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018222</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K31" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N31" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O31" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>2697.149091018222</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T31" t="n">
-        <v>2697.149091018222</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U31" t="n">
-        <v>2407.975480672791</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V31" t="n">
-        <v>2153.290992466904</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1924.457674141023</v>
+        <v>1503.604727733593</v>
       </c>
       <c r="C32" t="n">
-        <v>1555.495157200611</v>
+        <v>1503.604727733593</v>
       </c>
       <c r="D32" t="n">
-        <v>1197.229458593861</v>
+        <v>1503.604727733593</v>
       </c>
       <c r="E32" t="n">
-        <v>811.4412059956167</v>
+        <v>1117.816475135349</v>
       </c>
       <c r="F32" t="n">
-        <v>400.4553012060091</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S32" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T32" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U32" t="n">
-        <v>2642.120401548716</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V32" t="n">
-        <v>2311.057514205145</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="W32" t="n">
-        <v>2311.057514205145</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="X32" t="n">
-        <v>2311.057514205145</v>
+        <v>1893.744059709405</v>
       </c>
       <c r="Y32" t="n">
-        <v>2311.057514205145</v>
+        <v>1503.604727733593</v>
       </c>
     </row>
     <row r="33">
@@ -6753,7 +6753,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C33" t="n">
         <v>814.0449459359563</v>
@@ -6774,7 +6774,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J33" t="n">
         <v>129.2001442204943</v>
@@ -6798,22 +6798,22 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K34" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662038</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T34" t="n">
-        <v>2697.149091018222</v>
+        <v>571.1061430638139</v>
       </c>
       <c r="U34" t="n">
-        <v>2697.149091018222</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V34" t="n">
-        <v>2697.149091018222</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W34" t="n">
-        <v>2407.731920981262</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X34" t="n">
-        <v>2179.742370083244</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1626.94664591678</v>
+        <v>2310.5492509541</v>
       </c>
       <c r="C35" t="n">
-        <v>1626.94664591678</v>
+        <v>1941.586734013689</v>
       </c>
       <c r="D35" t="n">
-        <v>1268.68094731003</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E35" t="n">
-        <v>882.8926947117852</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F35" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H35" t="n">
         <v>53.94298182036445</v>
@@ -6935,19 +6935,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
@@ -6968,19 +6968,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U35" t="n">
-        <v>2684.243946791545</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V35" t="n">
-        <v>2353.181059447974</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W35" t="n">
-        <v>2000.41240417786</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X35" t="n">
-        <v>1626.94664591678</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y35" t="n">
-        <v>1626.94664591678</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="36">
@@ -6990,19 +6990,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G36" t="n">
         <v>221.4284102424006</v>
@@ -7029,28 +7029,28 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O36" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P36" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W36" t="n">
         <v>1572.325111207638</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G37" t="n">
         <v>53.94298182036445</v>
@@ -7114,31 +7114,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S37" t="n">
-        <v>513.8405610245969</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T37" t="n">
-        <v>513.8405610245969</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="U37" t="n">
-        <v>513.8405610245969</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="V37" t="n">
-        <v>259.1560728187101</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="W37" t="n">
-        <v>259.1560728187101</v>
+        <v>450.9323329800494</v>
       </c>
       <c r="X37" t="n">
-        <v>259.1560728187101</v>
+        <v>222.942782082032</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>962.1597273639309</v>
+        <v>1254.177966138805</v>
       </c>
       <c r="C38" t="n">
-        <v>593.1972104235191</v>
+        <v>885.2154491983931</v>
       </c>
       <c r="D38" t="n">
-        <v>593.1972104235191</v>
+        <v>526.9497505916427</v>
       </c>
       <c r="E38" t="n">
-        <v>207.4089578252748</v>
+        <v>141.1614979933984</v>
       </c>
       <c r="F38" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G38" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H38" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I38" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533144</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q38" t="n">
         <v>2697.149091018223</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T38" t="n">
-        <v>2697.149091018223</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U38" t="n">
-        <v>2443.387305656314</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V38" t="n">
-        <v>2112.324418312744</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="W38" t="n">
-        <v>1759.555763042629</v>
+        <v>1640.777806202927</v>
       </c>
       <c r="X38" t="n">
-        <v>1386.09000478155</v>
+        <v>1640.777806202927</v>
       </c>
       <c r="Y38" t="n">
-        <v>1348.759567428053</v>
+        <v>1640.777806202927</v>
       </c>
     </row>
     <row r="39">
@@ -7245,22 +7245,22 @@
         <v>221.4284102424008</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I39" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L39" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M39" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
         <v>1748.695370517453</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>438.9553738610023</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C40" t="n">
-        <v>270.0191909330954</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D40" t="n">
-        <v>270.0191909330954</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E40" t="n">
-        <v>270.0191909330954</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F40" t="n">
-        <v>123.129243435185</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G40" t="n">
-        <v>123.129243435185</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H40" t="n">
         <v>53.94298182036446</v>
@@ -7357,25 +7357,25 @@
         <v>728.1289842064343</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064343</v>
+        <v>513.840561024597</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064343</v>
+        <v>286.5323736931988</v>
       </c>
       <c r="U40" t="n">
-        <v>438.9553738610023</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="V40" t="n">
-        <v>438.9553738610023</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="W40" t="n">
-        <v>438.9553738610023</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X40" t="n">
-        <v>438.9553738610023</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y40" t="n">
-        <v>438.9553738610023</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1580.775345511217</v>
+        <v>1219.679656148628</v>
       </c>
       <c r="C41" t="n">
-        <v>1211.812828570805</v>
+        <v>850.7171392082163</v>
       </c>
       <c r="D41" t="n">
-        <v>853.5471299640549</v>
+        <v>850.7171392082163</v>
       </c>
       <c r="E41" t="n">
-        <v>467.7588773658106</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F41" t="n">
-        <v>467.7588773658106</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G41" t="n">
         <v>53.94298182036446</v>
@@ -7433,28 +7433,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T41" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U41" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V41" t="n">
-        <v>2697.149091018223</v>
+        <v>2369.884586449642</v>
       </c>
       <c r="W41" t="n">
-        <v>2344.380435748109</v>
+        <v>2369.884586449642</v>
       </c>
       <c r="X41" t="n">
-        <v>1970.914677487029</v>
+        <v>1996.418828188562</v>
       </c>
       <c r="Y41" t="n">
-        <v>1580.775345511217</v>
+        <v>1606.27949621275</v>
       </c>
     </row>
     <row r="42">
@@ -7476,37 +7476,37 @@
         <v>505.8730812692497</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J42" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K42" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L42" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M42" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018223</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2697.149091018223</v>
+        <v>124.6845874112026</v>
       </c>
       <c r="C43" t="n">
-        <v>2636.88256938646</v>
+        <v>124.6845874112026</v>
       </c>
       <c r="D43" t="n">
-        <v>2486.765929974124</v>
+        <v>124.6845874112026</v>
       </c>
       <c r="E43" t="n">
-        <v>2338.852836391731</v>
+        <v>124.6845874112026</v>
       </c>
       <c r="F43" t="n">
-        <v>2191.962888893821</v>
+        <v>124.6845874112026</v>
       </c>
       <c r="G43" t="n">
-        <v>2022.963088632153</v>
+        <v>124.6845874112026</v>
       </c>
       <c r="H43" t="n">
-        <v>2022.963088632153</v>
+        <v>124.6845874112026</v>
       </c>
       <c r="I43" t="n">
-        <v>2022.963088632153</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K43" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>2206.83913925958</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
-        <v>2351.73700797761</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N43" t="n">
-        <v>2498.624145662039</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O43" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P43" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q43" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R43" t="n">
-        <v>2697.149091018223</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S43" t="n">
-        <v>2697.149091018223</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T43" t="n">
-        <v>2697.149091018223</v>
+        <v>352.67413830922</v>
       </c>
       <c r="U43" t="n">
-        <v>2697.149091018223</v>
+        <v>352.67413830922</v>
       </c>
       <c r="V43" t="n">
-        <v>2697.149091018223</v>
+        <v>352.67413830922</v>
       </c>
       <c r="W43" t="n">
-        <v>2697.149091018223</v>
+        <v>352.67413830922</v>
       </c>
       <c r="X43" t="n">
-        <v>2697.149091018223</v>
+        <v>124.6845874112026</v>
       </c>
       <c r="Y43" t="n">
-        <v>2697.149091018223</v>
+        <v>124.6845874112026</v>
       </c>
     </row>
     <row r="44">
@@ -7622,31 +7622,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1293.182375355301</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="C44" t="n">
-        <v>976.6605612216329</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="D44" t="n">
-        <v>618.3948626148824</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E44" t="n">
-        <v>618.3948626148824</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F44" t="n">
-        <v>207.4089578252748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G44" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H44" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I44" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533144</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K44" t="n">
         <v>463.9616490733129</v>
@@ -7670,28 +7670,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T44" t="n">
-        <v>2697.149091018223</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U44" t="n">
-        <v>2443.387305656314</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V44" t="n">
-        <v>2443.387305656314</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W44" t="n">
-        <v>2443.387305656314</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X44" t="n">
-        <v>2069.921547395234</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="Y44" t="n">
-        <v>1679.782215419423</v>
+        <v>1095.753074569374</v>
       </c>
     </row>
     <row r="45">
@@ -7725,25 +7725,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K45" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L45" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M45" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018223</v>
@@ -7770,7 +7770,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y45" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="46">
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>507.3364050629042</v>
+        <v>546.4805193761946</v>
       </c>
       <c r="C46" t="n">
-        <v>498.8626623130036</v>
+        <v>377.5443364482877</v>
       </c>
       <c r="D46" t="n">
-        <v>348.7460229006679</v>
+        <v>227.427697035952</v>
       </c>
       <c r="E46" t="n">
-        <v>200.8329293182748</v>
+        <v>227.427697035952</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036446</v>
+        <v>80.53774953804162</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036446</v>
+        <v>80.53774953804162</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036446</v>
+        <v>80.53774953804162</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036446</v>
+        <v>80.53774953804162</v>
       </c>
       <c r="J46" t="n">
         <v>53.94298182036446</v>
@@ -7849,7 +7849,7 @@
         <v>728.1289842064343</v>
       </c>
       <c r="Y46" t="n">
-        <v>507.3364050629042</v>
+        <v>728.1289842064343</v>
       </c>
     </row>
   </sheetData>
@@ -8064,16 +8064,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8295,13 +8295,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
         <v>131.3417120833333</v>
@@ -8310,10 +8310,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>247.3552705420797</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>122.1609165114201</v>
       </c>
       <c r="K9" t="n">
-        <v>129.8481964236088</v>
+        <v>129.8481964236087</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>186.6702232840453</v>
       </c>
       <c r="M9" t="n">
-        <v>392.8337743093847</v>
+        <v>392.8337743093849</v>
       </c>
       <c r="N9" t="n">
-        <v>381.709495280812</v>
+        <v>381.7094952808121</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>130.3625277915346</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>133.663080786811</v>
+        <v>133.6630807868109</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8778,7 +8778,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720731</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9015,7 +9015,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>359.9065542451751</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9252,7 +9252,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>166.6588033951786</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9729,13 +9729,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9966,10 +9966,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P27" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.64146763747121</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10677,13 +10677,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10841,7 +10841,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599052</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10899,19 +10899,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>327.4218609627889</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K42" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,10 +11294,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.145412571165</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11394,7 +11394,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,10 +22544,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>298.3140538843193</v>
       </c>
       <c r="C2" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22589,19 +22589,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22610,10 +22610,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>157.445715035027</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22623,13 +22623,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>168.1279498935992</v>
       </c>
       <c r="D3" t="n">
-        <v>62.97201105982765</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -22674,25 +22674,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22781,16 +22781,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>179.6356836433646</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -22826,7 +22826,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -22847,10 +22847,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22860,19 +22860,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>59.75548455249177</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -22914,22 +22914,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22987,10 +22987,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S7" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -23018,10 +23018,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>119.491807711814</v>
+        <v>119.4918077118137</v>
       </c>
       <c r="C8" t="n">
-        <v>133.4093082663797</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23030,10 +23030,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>143.6340117900446</v>
       </c>
       <c r="G8" t="n">
-        <v>151.9681874521648</v>
+        <v>183.3466378992032</v>
       </c>
       <c r="H8" t="n">
         <v>338.5273214908784</v>
@@ -23042,7 +23042,7 @@
         <v>206.9091621893709</v>
       </c>
       <c r="J8" t="n">
-        <v>4.097100052852153</v>
+        <v>4.097100052852073</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23087,7 +23087,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>122.995904704387</v>
+        <v>122.9959047043867</v>
       </c>
     </row>
     <row r="9">
@@ -23100,7 +23100,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>47.07006491981357</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -23118,7 +23118,7 @@
         <v>111.757373777286</v>
       </c>
       <c r="I9" t="n">
-        <v>87.69233988828964</v>
+        <v>87.69233988828962</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23145,19 +23145,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>97.08446202703756</v>
+        <v>97.08446202703753</v>
       </c>
       <c r="S9" t="n">
         <v>170.7637213332854</v>
       </c>
       <c r="T9" t="n">
-        <v>14.23468477946435</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U9" t="n">
         <v>225.9381254702172</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -23194,16 +23194,16 @@
         <v>167.9494798159088</v>
       </c>
       <c r="H10" t="n">
-        <v>2.023134740338719</v>
+        <v>156.2256052425491</v>
       </c>
       <c r="I10" t="n">
-        <v>154.2024705022108</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>90.42516245839144</v>
+        <v>90.42516245839141</v>
       </c>
       <c r="K10" t="n">
-        <v>17.44799951871616</v>
+        <v>17.44799951871611</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23221,7 +23221,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.68702246598919</v>
+        <v>82.68702246598916</v>
       </c>
       <c r="R10" t="n">
         <v>175.4274210366964</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,28 +23303,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>143.980919315737</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>109.3788185999331</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23422,22 +23422,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>128.0571403890127</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,7 +23458,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>146.6651919801579</v>
@@ -23470,13 +23470,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>186.6211234951019</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23495,22 +23495,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>123.5101217588458</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23552,13 +23552,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>46.91541089620762</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23653,28 +23653,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>128.0571403890127</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23707,10 +23707,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>38.22219630222452</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23729,28 +23729,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>219.4114360937597</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>164.3604017932786</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,28 +23777,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23890,22 +23890,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>134.9656217923382</v>
@@ -23938,16 +23938,16 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
-        <v>83.12091415361559</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>236.2919628613353</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23969,13 +23969,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>358.2144687704596</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -23987,7 +23987,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>41.23110263013673</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,19 +24014,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24127,10 +24127,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>46.98975772502821</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>7.060634511642348</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,7 +24139,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>156.1708888417951</v>
@@ -24175,7 +24175,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>225.0351054580843</v>
@@ -24184,7 +24184,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24203,13 +24203,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>124.2938330655401</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24221,7 +24221,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>151.9313162448613</v>
@@ -24251,16 +24251,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>9.537387592120382</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24269,7 +24269,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24370,22 +24370,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>128.0571403890125</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24415,13 +24415,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>96.01048066168096</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24443,19 +24443,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>288.8135497210116</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>118.6682594534182</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24491,16 +24491,16 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24509,7 +24509,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>55.37228994299373</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>45.199959188537</v>
@@ -24646,10 +24646,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9439268694877</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
         <v>225.0351054580843</v>
@@ -24667,7 +24667,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24677,13 +24677,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>347.0125142843842</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24695,7 +24695,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>151.9313162448613</v>
@@ -24731,13 +24731,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>88.66117486369723</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24886,19 +24886,19 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>56.01837628787186</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>157.4983735401876</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24914,28 +24914,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>243.2795463898906</v>
       </c>
       <c r="G32" t="n">
-        <v>70.73697382900679</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,28 +24962,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25126,22 +25126,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>69.58249272689005</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>63.37316471551443</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25151,13 +25151,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>12.4290855484175</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25169,7 +25169,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>151.9313162448613</v>
@@ -25208,16 +25208,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>238.4480747238783</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25324,7 +25324,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>156.1708888417951</v>
@@ -25354,31 +25354,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>266.2561690354686</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>15.42369326373264</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25394,13 +25394,13 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>320.5297147304078</v>
       </c>
       <c r="G38" t="n">
         <v>413.784170020795</v>
@@ -25409,7 +25409,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,28 +25436,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>349.2808056760915</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25549,7 +25549,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25558,13 +25558,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
-        <v>87.67648984312278</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
         <v>134.9656217923382</v>
@@ -25597,13 +25597,13 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>56.01837628787175</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25625,22 +25625,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.106433430803349</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
@@ -25673,7 +25673,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -25685,10 +25685,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>58.23880152205123</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25786,28 +25786,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>107.5829646831827</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923382</v>
+        <v>110.1313914459454</v>
       </c>
       <c r="J43" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25831,13 +25831,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2818742419777</v>
@@ -25849,7 +25849,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25862,28 +25862,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>147.0563899350182</v>
       </c>
       <c r="C44" t="n">
-        <v>51.9162957786761</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,25 +25910,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26020,16 +26020,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>158.8578157762263</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26044,7 +26044,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.199959188537</v>
+        <v>18.87113914803661</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>457060.939351308</v>
+        <v>457060.9393513079</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>476112.7944668498</v>
+        <v>476112.79446685</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>783970.2356123615</v>
+        <v>783970.2356123613</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>783970.2356123615</v>
+        <v>783970.2356123612</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>783970.2356123615</v>
+        <v>783970.2356123612</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>783970.2356123615</v>
+        <v>783970.2356123612</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>783970.2356123612</v>
+        <v>783970.2356123613</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>783970.2356123615</v>
+        <v>783970.2356123613</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>783970.2356123615</v>
+        <v>783970.2356123613</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>783970.2356123615</v>
+        <v>783970.2356123616</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>783970.2356123615</v>
+        <v>783970.2356123613</v>
       </c>
     </row>
   </sheetData>
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>141236.5716516326</v>
+      </c>
+      <c r="C2" t="n">
         <v>141236.5716516325</v>
       </c>
-      <c r="C2" t="n">
-        <v>141236.5716516326</v>
-      </c>
       <c r="D2" t="n">
-        <v>147339.127997248</v>
+        <v>147339.1279972481</v>
       </c>
       <c r="E2" t="n">
         <v>245779.7185133939</v>
       </c>
       <c r="F2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.7185133938</v>
       </c>
       <c r="G2" t="n">
         <v>245779.7185133939</v>
       </c>
       <c r="H2" t="n">
-        <v>245779.718513394</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="I2" t="n">
         <v>245779.7185133939</v>
       </c>
       <c r="J2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.7185133938</v>
       </c>
       <c r="K2" t="n">
         <v>245779.7185133939</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>26613.587572663</v>
+        <v>26613.58757266329</v>
       </c>
       <c r="E3" t="n">
-        <v>407720.4376835744</v>
+        <v>407720.4376835742</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910619</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>5625.642228525643</v>
+        <v>5625.642228525744</v>
       </c>
       <c r="M3" t="n">
-        <v>102434.1176906352</v>
+        <v>102434.1176906351</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="C4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="D4" t="n">
-        <v>19822.89300799043</v>
+        <v>16958.01308307726</v>
       </c>
       <c r="E4" t="n">
-        <v>21256.93885078151</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="F4" t="n">
-        <v>21256.93885078151</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="G4" t="n">
-        <v>21256.93885078151</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="H4" t="n">
-        <v>21256.93885078152</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="I4" t="n">
-        <v>21256.93885078152</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="J4" t="n">
-        <v>21256.93885078152</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="K4" t="n">
-        <v>21256.93885078151</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="L4" t="n">
-        <v>21256.93885078151</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="M4" t="n">
-        <v>21256.93885078152</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="N4" t="n">
-        <v>21256.93885078152</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="O4" t="n">
-        <v>21256.93885078151</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="P4" t="n">
-        <v>21256.93885078152</v>
+        <v>18228.92756966326</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>50134.40740683334</v>
+        <v>50134.40740683336</v>
       </c>
       <c r="E5" t="n">
         <v>49231.47806340946</v>
@@ -26485,10 +26485,10 @@
         <v>49231.47806340946</v>
       </c>
       <c r="H5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="I5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
         <v>49231.47806340946</v>
@@ -26497,7 +26497,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="L5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="M5" t="n">
         <v>49231.47806340946</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7589.213529109889</v>
+        <v>-4728.818284657667</v>
       </c>
       <c r="C6" t="n">
-        <v>73180.21800243793</v>
+        <v>76040.61324689005</v>
       </c>
       <c r="D6" t="n">
-        <v>50768.24000976119</v>
+        <v>53633.11993467418</v>
       </c>
       <c r="E6" t="n">
-        <v>-232429.1360843714</v>
+        <v>-229401.124803253</v>
       </c>
       <c r="F6" t="n">
-        <v>175291.3015992029</v>
+        <v>178319.3128803211</v>
       </c>
       <c r="G6" t="n">
-        <v>175291.301599203</v>
+        <v>178319.3128803211</v>
       </c>
       <c r="H6" t="n">
-        <v>175291.301599203</v>
+        <v>178319.3128803212</v>
       </c>
       <c r="I6" t="n">
-        <v>175291.3015992029</v>
+        <v>178319.3128803212</v>
       </c>
       <c r="J6" t="n">
-        <v>112231.3590000967</v>
+        <v>115259.3702812148</v>
       </c>
       <c r="K6" t="n">
-        <v>175291.301599203</v>
+        <v>178319.3128803211</v>
       </c>
       <c r="L6" t="n">
-        <v>169665.6593706773</v>
+        <v>172693.6706517954</v>
       </c>
       <c r="M6" t="n">
-        <v>72857.18390856776</v>
+        <v>75885.1951896861</v>
       </c>
       <c r="N6" t="n">
-        <v>175291.3015992029</v>
+        <v>178319.3128803212</v>
       </c>
       <c r="O6" t="n">
-        <v>175291.3015992029</v>
+        <v>178319.3128803212</v>
       </c>
       <c r="P6" t="n">
-        <v>175291.3015992029</v>
+        <v>178319.3128803212</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.01338268678938</v>
+        <v>23.01338268678962</v>
       </c>
       <c r="E3" t="n">
         <v>377.7436642170866</v>
@@ -26793,22 +26793,22 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>263.2420339516666</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="E4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
         <v>674.2872727545556</v>
@@ -26817,7 +26817,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="M4" t="n">
         <v>674.2872727545556</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.01338268678938</v>
+        <v>23.01338268678962</v>
       </c>
       <c r="E3" t="n">
-        <v>354.7302815302972</v>
+        <v>354.730281530297</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>22.22774507400754</v>
+        <v>22.22774507400783</v>
       </c>
       <c r="E4" t="n">
-        <v>411.045238802889</v>
+        <v>411.0452388028887</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776589</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>22.22774507400754</v>
+        <v>22.22774507400794</v>
       </c>
       <c r="M4" t="n">
-        <v>411.045238802889</v>
+        <v>411.0452388028886</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>22.22774507400754</v>
+        <v>22.22774507400783</v>
       </c>
       <c r="M4" t="n">
-        <v>411.045238802889</v>
+        <v>411.0452388028887</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.09251611130367583</v>
+        <v>0.09251611130367678</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9474806248887704</v>
+        <v>0.94748062488878</v>
       </c>
       <c r="I8" t="n">
-        <v>3.566727381034966</v>
+        <v>3.566727381035002</v>
       </c>
       <c r="J8" t="n">
-        <v>7.852189301760364</v>
+        <v>7.852189301760444</v>
       </c>
       <c r="K8" t="n">
-        <v>11.76839629324496</v>
+        <v>11.76839629324508</v>
       </c>
       <c r="L8" t="n">
-        <v>14.59973623455484</v>
+        <v>14.59973623455499</v>
       </c>
       <c r="M8" t="n">
-        <v>16.24501962895158</v>
+        <v>16.24501962895175</v>
       </c>
       <c r="N8" t="n">
-        <v>16.50788103019315</v>
+        <v>16.50788103019332</v>
       </c>
       <c r="O8" t="n">
-        <v>15.58792394841722</v>
+        <v>15.58792394841738</v>
       </c>
       <c r="P8" t="n">
-        <v>13.30393245060773</v>
+        <v>13.30393245060786</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544831</v>
+        <v>9.990699214544932</v>
       </c>
       <c r="R8" t="n">
-        <v>5.811515176679532</v>
+        <v>5.811515176679592</v>
       </c>
       <c r="S8" t="n">
-        <v>2.108210886332515</v>
+        <v>2.108210886332537</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4049892772318412</v>
+        <v>0.4049892772318453</v>
       </c>
       <c r="U8" t="n">
-        <v>0.007401288904294065</v>
+        <v>0.00740128890429414</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04950048351498094</v>
+        <v>0.04950048351498144</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4780704592104738</v>
+        <v>0.4780704592104787</v>
       </c>
       <c r="I9" t="n">
-        <v>1.70429296312544</v>
+        <v>1.704292963125458</v>
       </c>
       <c r="J9" t="n">
-        <v>4.676710155246511</v>
+        <v>4.676710155246559</v>
       </c>
       <c r="K9" t="n">
-        <v>7.993242550750233</v>
+        <v>7.993242550750314</v>
       </c>
       <c r="L9" t="n">
-        <v>10.74790103688215</v>
+        <v>10.74790103688226</v>
       </c>
       <c r="M9" t="n">
-        <v>12.54229356430021</v>
+        <v>12.54229356430034</v>
       </c>
       <c r="N9" t="n">
-        <v>12.87425075418796</v>
+        <v>12.87425075418809</v>
       </c>
       <c r="O9" t="n">
-        <v>11.77742425104022</v>
+        <v>11.77742425104034</v>
       </c>
       <c r="P9" t="n">
-        <v>9.452421277522983</v>
+        <v>9.452421277523079</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.318693299210549</v>
+        <v>6.318693299210613</v>
       </c>
       <c r="R9" t="n">
-        <v>3.073372125605572</v>
+        <v>3.073372125605603</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9194497705523865</v>
+        <v>0.9194497705523959</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1995216857467871</v>
+        <v>0.1995216857467891</v>
       </c>
       <c r="U9" t="n">
-        <v>0.003256610757564536</v>
+        <v>0.00325661075756457</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04149954254994806</v>
+        <v>0.04149954254994848</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3689686601259021</v>
+        <v>0.3689686601259058</v>
       </c>
       <c r="I10" t="n">
-        <v>1.248004425047529</v>
+        <v>1.248004425047542</v>
       </c>
       <c r="J10" t="n">
-        <v>2.934017658281328</v>
+        <v>2.934017658281358</v>
       </c>
       <c r="K10" t="n">
-        <v>4.821492307166691</v>
+        <v>4.821492307166741</v>
       </c>
       <c r="L10" t="n">
-        <v>6.16985017147137</v>
+        <v>6.169850171471433</v>
       </c>
       <c r="M10" t="n">
-        <v>6.505241928988675</v>
+        <v>6.505241928988742</v>
       </c>
       <c r="N10" t="n">
-        <v>6.350561815847965</v>
+        <v>6.35056181584803</v>
       </c>
       <c r="O10" t="n">
-        <v>5.865771705150842</v>
+        <v>5.865771705150903</v>
       </c>
       <c r="P10" t="n">
-        <v>5.019181037131898</v>
+        <v>5.019181037131949</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.475020785705196</v>
+        <v>3.475020785705232</v>
       </c>
       <c r="R10" t="n">
-        <v>1.865970340473119</v>
+        <v>1.865970340473138</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7232238460750037</v>
+        <v>0.723223846075011</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1773162272588689</v>
+        <v>0.1773162272588708</v>
       </c>
       <c r="U10" t="n">
-        <v>0.002263611411815351</v>
+        <v>0.002263611411815374</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -34784,16 +34784,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -35015,13 +35015,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35030,10 +35030,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,22 +35173,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>115.8239578194292</v>
+        <v>115.8239578194293</v>
       </c>
       <c r="L8" t="n">
-        <v>196.494535815018</v>
+        <v>196.4945358150182</v>
       </c>
       <c r="M8" t="n">
-        <v>235.4123198945113</v>
+        <v>235.4123198945115</v>
       </c>
       <c r="N8" t="n">
-        <v>224.4417418455864</v>
+        <v>224.4417418455866</v>
       </c>
       <c r="O8" t="n">
-        <v>166.2898937894759</v>
+        <v>166.289893789476</v>
       </c>
       <c r="P8" t="n">
-        <v>103.8696448668208</v>
+        <v>103.869644866821</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>3.930118828988654</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>243.0338665604671</v>
+        <v>58.8637445410534</v>
       </c>
       <c r="M9" t="n">
-        <v>263.2420339516666</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="N9" t="n">
-        <v>263.2420339516666</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="O9" t="n">
-        <v>263.0434990833253</v>
+        <v>263.0434990833254</v>
       </c>
       <c r="P9" t="n">
-        <v>5.840541654727375</v>
+        <v>193.94078250313</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35334,19 +35334,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>33.75987543178751</v>
+        <v>33.75987543178757</v>
       </c>
       <c r="M10" t="n">
-        <v>46.08911889082926</v>
+        <v>46.08911889082933</v>
       </c>
       <c r="N10" t="n">
-        <v>50.48273419507656</v>
+        <v>50.48273419507662</v>
       </c>
       <c r="O10" t="n">
-        <v>30.45089961919052</v>
+        <v>30.45089961919058</v>
       </c>
       <c r="P10" t="n">
-        <v>2.297740302025386</v>
+        <v>2.297740302025437</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K12" t="n">
         <v>257.8255762031298</v>
@@ -35498,7 +35498,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O12" t="n">
         <v>444.5817404245898</v>
@@ -35507,7 +35507,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.9372285181304</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K14" t="n">
         <v>297.2230414343419</v>
@@ -35735,7 +35735,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>439.8839133355119</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O15" t="n">
         <v>444.5817404245898</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35972,7 +35972,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245898</v>
@@ -35981,7 +35981,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36218,7 +36218,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36449,13 +36449,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P24" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36686,10 +36686,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P27" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
         <v>173.8110948137341</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36929,7 +36929,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37166,7 +37166,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37397,13 +37397,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P36" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181313</v>
       </c>
       <c r="K38" t="n">
         <v>297.2230414343419</v>
@@ -37561,7 +37561,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q38" t="n">
-        <v>153.9975062898695</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,19 +37619,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L39" t="n">
-        <v>365.2844632307155</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M39" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
@@ -37877,7 +37877,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,10 +38014,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.9372285181313</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343422</v>
       </c>
       <c r="L44" t="n">
         <v>421.5361394435301</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K45" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L45" t="n">
         <v>408.7029475713857</v>
@@ -38114,7 +38114,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
